--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_46.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_46.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_0</t>
+          <t>model_1_46_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9946975052731989</v>
+        <v>0.8524680272660374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7997130243269174</v>
+        <v>0.6166971119850158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7812737571385996</v>
+        <v>0.7417169303640804</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9805322645450996</v>
+        <v>0.8585193967978898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02207177586012433</v>
+        <v>0.3496791952238996</v>
       </c>
       <c r="G2" t="n">
-        <v>1.339319928562627</v>
+        <v>2.563148177103711</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7823710882389786</v>
+        <v>0.9238635639748333</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05201849908404781</v>
+        <v>0.2285336796609033</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2847187526372306</v>
+        <v>1.006431447919625</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1485657290902728</v>
+        <v>0.5913367866316958</v>
       </c>
       <c r="L2" t="n">
-        <v>1.339359662515271</v>
+        <v>0.7991053988303488</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1509054908122005</v>
+        <v>0.6006497499012252</v>
       </c>
       <c r="N2" t="n">
-        <v>137.626911194121</v>
+        <v>36.10147825978842</v>
       </c>
       <c r="O2" t="n">
-        <v>278.9620837373375</v>
+        <v>73.06606184801424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_1</t>
+          <t>model_1_46_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933797831316749</v>
+        <v>0.8521141497955007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.797753939766618</v>
+        <v>0.6156840936728016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7789250914134647</v>
+        <v>0.741039316869551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9682216055969635</v>
+        <v>0.8616572309086735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02755682945322544</v>
+        <v>0.350517952998313</v>
       </c>
       <c r="G3" t="n">
-        <v>1.352420336038103</v>
+        <v>2.569922235222008</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7907721293543228</v>
+        <v>0.9262873481544769</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08491302873805792</v>
+        <v>0.2234651348620201</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2883416773845651</v>
+        <v>1.00399730042947</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1660024983342885</v>
+        <v>0.5920455666570884</v>
       </c>
       <c r="L3" t="n">
-        <v>1.423693879572809</v>
+        <v>0.7986235231257882</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1686168717414349</v>
+        <v>0.6013696925034978</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1830097621292</v>
+        <v>36.09668670542273</v>
       </c>
       <c r="O3" t="n">
-        <v>278.5181823053456</v>
+        <v>73.06127029364855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_2</t>
+          <t>model_1_46_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9927864284253891</v>
+        <v>0.8517405443114541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7971070304554585</v>
+        <v>0.6146590165181836</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7780124109753812</v>
+        <v>0.7403482580153382</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9628389069080288</v>
+        <v>0.8647593674858156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03002668425883159</v>
+        <v>0.3514034699650538</v>
       </c>
       <c r="G4" t="n">
-        <v>1.356746221580571</v>
+        <v>2.576776930874985</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7940367343610948</v>
+        <v>0.9287592256061016</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09929579593091985</v>
+        <v>0.2184542523046973</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2886423445036047</v>
+        <v>1.001495881929382</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1732820944553464</v>
+        <v>0.592792940211887</v>
       </c>
       <c r="L4" t="n">
-        <v>1.461668580775097</v>
+        <v>0.7981147837432566</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1760111142244731</v>
+        <v>0.6021288364446848</v>
       </c>
       <c r="N4" t="n">
-        <v>137.0113376347487</v>
+        <v>36.09164045718155</v>
       </c>
       <c r="O4" t="n">
-        <v>278.3465101779651</v>
+        <v>73.05622404540738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_3</t>
+          <t>model_1_46_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9923494920760804</v>
+        <v>0.8513467492152956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7966051827616507</v>
+        <v>0.6136219005731725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7772087590966696</v>
+        <v>0.7396442554347609</v>
       </c>
       <c r="E5" t="n">
-        <v>0.959056793329059</v>
+        <v>0.8678245956130718</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03184544347764581</v>
+        <v>0.3523368402017285</v>
       </c>
       <c r="G5" t="n">
-        <v>1.360102079419859</v>
+        <v>2.583712129974754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7969113505328329</v>
+        <v>0.9312774020164118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1094017413398851</v>
+        <v>0.213502987982469</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2895075898424371</v>
+        <v>0.9989258113624216</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1784529166969423</v>
+        <v>0.5935796831106406</v>
       </c>
       <c r="L5" t="n">
-        <v>1.489632507130857</v>
+        <v>0.7975785521229557</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1812633717474482</v>
+        <v>0.6029279697576395</v>
       </c>
       <c r="N5" t="n">
-        <v>136.8937219382493</v>
+        <v>36.08633525712136</v>
       </c>
       <c r="O5" t="n">
-        <v>278.2288944814657</v>
+        <v>73.05091884534718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_4</t>
+          <t>model_1_46_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9919665595223348</v>
+        <v>0.8509323434292401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7962001729910142</v>
+        <v>0.6125727057218073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7766290381536405</v>
+        <v>0.7389269220567314</v>
       </c>
       <c r="E6" t="n">
-        <v>0.955710229534154</v>
+        <v>0.8708517397309583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03343941045569779</v>
+        <v>0.3533190617438028</v>
       </c>
       <c r="G6" t="n">
-        <v>1.362810381621004</v>
+        <v>2.59072810077693</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7989849787318964</v>
+        <v>0.9338432619162442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1183438818422187</v>
+        <v>0.2086132407770786</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2898479012263636</v>
+        <v>0.9962894701773004</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1828644592470002</v>
+        <v>0.5944064785513384</v>
       </c>
       <c r="L6" t="n">
-        <v>1.514140190570572</v>
+        <v>0.7970142548823694</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1857443916827449</v>
+        <v>0.6037677864000363</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7960402416688</v>
+        <v>36.08076754530202</v>
       </c>
       <c r="O6" t="n">
-        <v>278.1312127848852</v>
+        <v>73.04535113352784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_5</t>
+          <t>model_1_46_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9916005983107771</v>
+        <v>0.8504967748451422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7958306823880604</v>
+        <v>0.6115114223748597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.775997413072628</v>
+        <v>0.7381967473305906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.952502307038728</v>
+        <v>0.8738397506762455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.034962733768812</v>
+        <v>0.3543514431939364</v>
       </c>
       <c r="G7" t="n">
-        <v>1.365281166984303</v>
+        <v>2.597824907404731</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8012442650229518</v>
+        <v>0.9364550545736867</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1269155677363789</v>
+        <v>0.2037867054023456</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2902112255531549</v>
+        <v>0.9935922448773211</v>
       </c>
       <c r="K7" t="n">
-        <v>0.186983244620506</v>
+        <v>0.5952742588033993</v>
       </c>
       <c r="L7" t="n">
-        <v>1.537561708110267</v>
+        <v>0.7964211402146617</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1899280438086086</v>
+        <v>0.604649233323605</v>
       </c>
       <c r="N7" t="n">
-        <v>136.7069450684073</v>
+        <v>36.07493216188382</v>
       </c>
       <c r="O7" t="n">
-        <v>278.0421176116237</v>
+        <v>73.03951575010964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_6</t>
+          <t>model_1_46_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9912560523950759</v>
+        <v>0.850039468209332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7955081816645795</v>
+        <v>0.6104379343991091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7754634729648452</v>
+        <v>0.7374535777151257</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9494734052570959</v>
+        <v>0.8767877596395921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03639691534120296</v>
+        <v>0.3554353480141415</v>
       </c>
       <c r="G8" t="n">
-        <v>1.367437730807201</v>
+        <v>2.605003326441532</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8031541378288648</v>
+        <v>0.9391133291967546</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1350089037547618</v>
+        <v>0.1990247852463757</v>
       </c>
       <c r="J8" t="n">
-        <v>0.290266717244744</v>
+        <v>0.9908314015566304</v>
       </c>
       <c r="K8" t="n">
-        <v>0.190779756109507</v>
+        <v>0.5961839883912864</v>
       </c>
       <c r="L8" t="n">
-        <v>1.559612646715145</v>
+        <v>0.7957984247956861</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1937843465584422</v>
+        <v>0.6055732902431052</v>
       </c>
       <c r="N8" t="n">
-        <v>136.6265425026078</v>
+        <v>36.06882381680789</v>
       </c>
       <c r="O8" t="n">
-        <v>277.9617150458242</v>
+        <v>73.03340740503371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_7</t>
+          <t>model_1_46_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9908085970098698</v>
+        <v>0.8495598110343814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7950503047537879</v>
+        <v>0.60935228846339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7746130518582459</v>
+        <v>0.7366979304531711</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9456602725277098</v>
+        <v>0.8796945019757707</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03825946032776499</v>
+        <v>0.3565722279176083</v>
       </c>
       <c r="G9" t="n">
-        <v>1.370499555817992</v>
+        <v>2.612263045812625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8061960448169211</v>
+        <v>0.9418162356378202</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1451977334648449</v>
+        <v>0.1943295230911523</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2905137014534304</v>
+        <v>0.9880092692237007</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1956002564613988</v>
+        <v>0.5971366911500317</v>
       </c>
       <c r="L9" t="n">
-        <v>1.588249791368334</v>
+        <v>0.7951452746000087</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1986807649721438</v>
+        <v>0.6065409971179475</v>
       </c>
       <c r="N9" t="n">
-        <v>136.5267288409197</v>
+        <v>36.06243691358906</v>
       </c>
       <c r="O9" t="n">
-        <v>277.8619013841362</v>
+        <v>73.02702050181489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_8</t>
+          <t>model_1_46_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9903797626001999</v>
+        <v>0.8490571049036465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.794634032678104</v>
+        <v>0.6082543152541792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7739007012773038</v>
+        <v>0.7359295905818322</v>
       </c>
       <c r="E10" t="n">
-        <v>0.941984944345949</v>
+        <v>0.8825591234775033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04004449500653646</v>
+        <v>0.3577637382863232</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373283169104848</v>
+        <v>2.61960519771832</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8087440815404913</v>
+        <v>0.9445645428066938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1550183443982223</v>
+        <v>0.1897022987380622</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2908538738308952</v>
+        <v>0.9851292319610186</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2001112065990719</v>
+        <v>0.5981335455283571</v>
       </c>
       <c r="L10" t="n">
-        <v>1.615695193587207</v>
+        <v>0.7944607385921995</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2032627580651895</v>
+        <v>0.6075535509562427</v>
       </c>
       <c r="N10" t="n">
-        <v>136.4355281358712</v>
+        <v>36.05576491872893</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7707006790876</v>
+        <v>73.02034850695476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_9</t>
+          <t>model_1_46_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.989940442786577</v>
+        <v>0.8485307575077308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794153118729389</v>
+        <v>0.607143920107856</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7730073321614295</v>
+        <v>0.7351487521079781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9382394833954275</v>
+        <v>0.8853811755557152</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0418731754591891</v>
+        <v>0.3590112830076558</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37649904289431</v>
+        <v>2.627030415174683</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8119396110674562</v>
+        <v>0.9473575567520538</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1650263526473276</v>
+        <v>0.1851438367932319</v>
       </c>
       <c r="J11" t="n">
-        <v>0.291395386903503</v>
+        <v>0.9821957240929307</v>
       </c>
       <c r="K11" t="n">
-        <v>0.204629361185508</v>
+        <v>0.5991755026765162</v>
       </c>
       <c r="L11" t="n">
-        <v>1.643811661659072</v>
+        <v>0.793744010223293</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2078520690698644</v>
+        <v>0.6086119178879104</v>
       </c>
       <c r="N11" t="n">
-        <v>136.34621972182</v>
+        <v>36.04880292399411</v>
       </c>
       <c r="O11" t="n">
-        <v>277.6813922650364</v>
+        <v>73.01338651221992</v>
       </c>
     </row>
   </sheetData>
